--- a/duolingo_dici_e_inf.xlsx
+++ b/duolingo_dici_e_inf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50dcfa6db88d6caf/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcgom\Documents\FGV e Outros\MIR-Duolingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{20894BC3-752B-4F26-9701-E6ACC8DC7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA59C35E-C67D-41F1-B172-294B911F3C80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A75A03-D525-4E7C-AC3F-1934A026FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BFBC3F2-898E-4644-A06A-632A26CE0DE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BFBC3F2-898E-4644-A06A-632A26CE0DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500 mil/dia</t>
+      <t>1/semestre</t>
     </r>
   </si>
 </sst>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804ADFA1-34C1-4E07-9BFB-78E787D27B9B}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="260" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,7 +890,7 @@
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="30.109375" customWidth="1"/>
     <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5546875" customWidth="1"/>
   </cols>

--- a/duolingo_dici_e_inf.xlsx
+++ b/duolingo_dici_e_inf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcgom\Documents\FGV e Outros\MIR-Duolingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A75A03-D525-4E7C-AC3F-1934A026FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634CAA32-35CD-411D-A68F-FAE6B7FEC552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BFBC3F2-898E-4644-A06A-632A26CE0DE0}"/>
   </bookViews>
@@ -322,7 +322,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1/semestre</t>
+      <t>500 mil/dia</t>
     </r>
   </si>
 </sst>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804ADFA1-34C1-4E07-9BFB-78E787D27B9B}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="260" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="260" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/duolingo_dici_e_inf.xlsx
+++ b/duolingo_dici_e_inf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50dcfa6db88d6caf/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvmail-my.sharepoint.com/personal/b51063_fgv_edu_br/Documents/3. Modelagem Informacional/MIR de minimundo de BD/MIR-Duolingo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{20894BC3-752B-4F26-9701-E6ACC8DC7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C97179EE-BA25-4AAC-A29E-A8D180E1DAC4}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{20894BC3-752B-4F26-9701-E6ACC8DC7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BDDAC94-B040-4894-9164-FCFB43DFB122}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BFBC3F2-898E-4644-A06A-632A26CE0DE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BFBC3F2-898E-4644-A06A-632A26CE0DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -572,9 +572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -612,7 +612,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -718,7 +718,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -860,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -871,20 +871,20 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -917,7 +917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
@@ -929,7 +929,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -946,7 +946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
@@ -958,7 +958,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -975,17 +975,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="11" t="s">
         <v>30</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="H16" s="13"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
